--- a/biology/Botanique/Céphalanthère_à_longues_bractées/Céphalanthère_à_longues_bractées.xlsx
+++ b/biology/Botanique/Céphalanthère_à_longues_bractées/Céphalanthère_à_longues_bractées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phalanth%C3%A8re_%C3%A0_longues_bract%C3%A9es</t>
+          <t>Céphalanthère_à_longues_bractées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalanthera longibracteata, la Céphalanthère à longues bractées, est une espèce de plantes à fleurs de la famille des Orchidaceae et du genre Cephalanthera, originaire d'Asie de l'Est tempérée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9phalanth%C3%A8re_%C3%A0_longues_bract%C3%A9es</t>
+          <t>Céphalanthère_à_longues_bractées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier par Carl Ludwig von Blume en 1859, qui la classe dans le genre Cephalanthera sous le nom binominal Cephalanthera longibracteata, basionyme. L'espèce a été successivement déplacée dans les genres Epipactis, Limodorum et Serapias, mais le nom correct reste Cephalanthera longibracteata[1],[2],[3].
-Cephalanthera longibracteata a pour synonymes[1],[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par Carl Ludwig von Blume en 1859, qui la classe dans le genre Cephalanthera sous le nom binominal Cephalanthera longibracteata, basionyme. L'espèce a été successivement déplacée dans les genres Epipactis, Limodorum et Serapias, mais le nom correct reste Cephalanthera longibracteata.
+Cephalanthera longibracteata a pour synonymes :
 Epipactis longibracteata (Blume) Wettst., 1889
 Limodorum longibracteatum (Blume) Kuntze, 1891
 Serapias longibracteata (Blume) A.A.Eaton, 1908
-Elle est appelée en français « Céphalanthère à longues bractées »[4], en chinois 长苞头蕊兰 (zhǎng bāo tóu ruǐ lán), en japonais ササバギンラン (sasaba-gin-ran) (traduction littérale : « Orchidée argentée à feuilles de bambou sasa »)[4] et en coréen 은대난초 (geum nan cho)[5].
+Elle est appelée en français « Céphalanthère à longues bractées », en chinois 长苞头蕊兰 (zhǎng bāo tóu ruǐ lán), en japonais ササバギンラン (sasaba-gin-ran) (traduction littérale : « Orchidée argentée à feuilles de bambou sasa ») et en coréen 은대난초 (geum nan cho).
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9phalanth%C3%A8re_%C3%A0_longues_bract%C3%A9es</t>
+          <t>Céphalanthère_à_longues_bractées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante feuillue, autotrophe, de 30 à 50 cm de haut. La tige est mince à assez robuste, avec plusieurs gaines basales, à 6–8 feuilles, légèrement croûteuses vers l'apex. Les feuilles sont largement lancéolées à oblongues-lancéolées, de dimensions 6-14 × 1,5-3 cm, scabreuses abaxiales sur les nervures, l'apex long et acuminé[3].
-Appareil reproducteur
-L'inflorescence se compose de 8–15 fleurs ; le rachis est de 3–5,5 cm ; les bractées florales sont linéaires-lancéolées, les basales de 2 à 10 cm, devenant plus courtes et plus étroites au-dessus. Les fleurs sont érigées, faiblement étalées, blanches ; le pédicelle et l'ovaire mesurent 12–16 mm. Les sépales sont étroitement ovés à lancéolés, de dimensions 10-13 × 2-3 mm, l'apex aigu à acuminé. Les pétales sont ovales, de 8,5-9 × environ 3 mm, l'apex aigu à mucroné ; la lèvre est plus courte que les pétales, de 5,5–7 mm, éperonnée à la base, en deux parties ; l'hypochile est largement ové ; les lobes hypochiles sont érigés et embrassant la colonne, triangulaires, de 2–2,5 mm, l'apex subaiguë-falcate ; l'épichile est ovo-cordé, d'environ 3,5 × 4 mm, avec trois lamelles longitudinales, le papillaire à l'apex, le bord légèrement ondulé, l'apex aigu ; l'éperon dépasse légèrement entre les bases des sépales latéraux, légèrement incurvé, conique, de 1–1,5 mm, l'apex obtus. La colonne mesure 5,5–6,5 mm ; l'anthère est ovoïde, d'environ 1,5 mm. La capsule est érigée, de 2–2,5 cm. La plante fleurit en mai-juin, et la fructification a lieu en août et septembre. Les cellules diploïdes possèdent entre 30 et 36 chromosomes (2n=30, 32, 33, 34, 36)[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante feuillue, autotrophe, de 30 à 50 cm de haut. La tige est mince à assez robuste, avec plusieurs gaines basales, à 6–8 feuilles, légèrement croûteuses vers l'apex. Les feuilles sont largement lancéolées à oblongues-lancéolées, de dimensions 6-14 × 1,5-3 cm, scabreuses abaxiales sur les nervures, l'apex long et acuminé.
 </t>
         </is>
       </c>
@@ -563,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9phalanth%C3%A8re_%C3%A0_longues_bract%C3%A9es</t>
+          <t>Céphalanthère_à_longues_bractées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +595,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence se compose de 8–15 fleurs ; le rachis est de 3–5,5 cm ; les bractées florales sont linéaires-lancéolées, les basales de 2 à 10 cm, devenant plus courtes et plus étroites au-dessus. Les fleurs sont érigées, faiblement étalées, blanches ; le pédicelle et l'ovaire mesurent 12–16 mm. Les sépales sont étroitement ovés à lancéolés, de dimensions 10-13 × 2-3 mm, l'apex aigu à acuminé. Les pétales sont ovales, de 8,5-9 × environ 3 mm, l'apex aigu à mucroné ; la lèvre est plus courte que les pétales, de 5,5–7 mm, éperonnée à la base, en deux parties ; l'hypochile est largement ové ; les lobes hypochiles sont érigés et embrassant la colonne, triangulaires, de 2–2,5 mm, l'apex subaiguë-falcate ; l'épichile est ovo-cordé, d'environ 3,5 × 4 mm, avec trois lamelles longitudinales, le papillaire à l'apex, le bord légèrement ondulé, l'apex aigu ; l'éperon dépasse légèrement entre les bases des sépales latéraux, légèrement incurvé, conique, de 1–1,5 mm, l'apex obtus. La colonne mesure 5,5–6,5 mm ; l'anthère est ovoïde, d'environ 1,5 mm. La capsule est érigée, de 2–2,5 cm. La plante fleurit en mai-juin, et la fructification a lieu en août et septembre. Les cellules diploïdes possèdent entre 30 et 36 chromosomes (2n=30, 32, 33, 34, 36).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Céphalanthère_à_longues_bractées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalanth%C3%A8re_%C3%A0_longues_bract%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique d'Asie de l'Est tempérée. Ainsi, elle se rencontre dans les forêts et lisières de forêt[3] de la région de l'Amour au nord-est de la Chine à la frontière avec la Russie ; également en Corée et au Japon[1],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique d'Asie de l'Est tempérée. Ainsi, elle se rencontre dans les forêts et lisières de forêt de la région de l'Amour au nord-est de la Chine à la frontière avec la Russie ; également en Corée et au Japon,.
 </t>
         </is>
       </c>
